--- a/PuppeteerApp/Data/TODO/Competitions.xlsx
+++ b/PuppeteerApp/Data/TODO/Competitions.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
